--- a/tests/indicators/e-k/Hma/Hma.Calc.xlsx
+++ b/tests/indicators/e-k/Hma/Hma.Calc.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\indicators\Hma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\tests\indicators\e-k\Hma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42EDCCF-2779-4F4F-986F-9711DA60BD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DEDB2D-9834-4B9B-90DC-157CC1321FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,16 @@
     <definedName name="Period3">HMA!$T$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -87,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -156,6 +166,9 @@
   </si>
   <si>
     <t>HMA</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1276,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Currency"/>
@@ -1608,7 +1621,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
     <col min="3" max="6" width="10.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
@@ -1625,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1693,7 +1706,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>42738</v>
@@ -1737,7 +1750,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>42739</v>
@@ -1782,7 +1795,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>42740</v>
@@ -1812,7 +1825,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>42741</v>
@@ -1842,7 +1855,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>42744</v>
@@ -1872,7 +1885,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>42745</v>
@@ -1902,7 +1915,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>42746</v>
@@ -1932,7 +1945,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>42747</v>
@@ -1962,7 +1975,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>42748</v>
@@ -1992,7 +2005,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>42752</v>
@@ -2028,7 +2041,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>42753</v>
@@ -2064,7 +2077,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>42754</v>
@@ -2100,7 +2113,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>42755</v>
@@ -2136,7 +2149,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>42758</v>
@@ -2172,7 +2185,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>42759</v>
@@ -2208,7 +2221,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>42760</v>
@@ -2244,7 +2257,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>42761</v>
@@ -2280,7 +2293,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>42762</v>
@@ -2316,7 +2329,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>42765</v>
@@ -2352,7 +2365,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>42766</v>
@@ -2398,7 +2411,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>42767</v>
@@ -2444,7 +2457,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>42768</v>
@@ -2490,7 +2503,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>42769</v>
@@ -2541,7 +2554,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3">
         <v>42772</v>
@@ -2592,7 +2605,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3">
         <v>42773</v>
@@ -2643,7 +2656,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>42774</v>
@@ -2694,7 +2707,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>42775</v>
@@ -2745,7 +2758,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>42776</v>
@@ -2796,7 +2809,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3">
         <v>42779</v>
@@ -2847,7 +2860,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3">
         <v>42780</v>
@@ -2898,7 +2911,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>42781</v>
@@ -2949,7 +2962,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3">
         <v>42782</v>
@@ -3000,7 +3013,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>42783</v>
@@ -3051,7 +3064,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3">
         <v>42787</v>
@@ -3102,7 +3115,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3">
         <v>42788</v>
@@ -3153,7 +3166,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>42789</v>
@@ -3204,7 +3217,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3">
         <v>42790</v>
@@ -3255,7 +3268,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3">
         <v>42793</v>
@@ -3306,7 +3319,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3">
         <v>42794</v>
@@ -3357,7 +3370,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
         <v>42795</v>
@@ -3408,7 +3421,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>42796</v>
@@ -3459,7 +3472,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3">
         <v>42797</v>
@@ -3510,7 +3523,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3">
         <v>42800</v>
@@ -3561,7 +3574,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
         <v>42801</v>
@@ -3612,7 +3625,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3">
         <v>42802</v>
@@ -3663,7 +3676,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3">
         <v>42803</v>
@@ -3714,7 +3727,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3">
         <v>42804</v>
@@ -3765,7 +3778,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
         <v>42807</v>
@@ -3816,7 +3829,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3">
         <v>42808</v>
@@ -3867,7 +3880,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
         <v>42809</v>
@@ -3918,7 +3931,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3">
         <v>42810</v>
@@ -3969,7 +3982,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="3">
         <v>42811</v>
@@ -4020,7 +4033,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3">
         <v>42814</v>
@@ -4071,7 +4084,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3">
         <v>42815</v>
@@ -4122,7 +4135,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>42816</v>
@@ -4173,7 +4186,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3">
         <v>42817</v>
@@ -4224,7 +4237,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3">
         <v>42818</v>
@@ -4275,7 +4288,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3">
         <v>42821</v>
@@ -4326,7 +4339,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3">
         <v>42822</v>
@@ -4377,7 +4390,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3">
         <v>42823</v>
@@ -4428,7 +4441,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3">
         <v>42824</v>
@@ -4479,7 +4492,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3">
         <v>42825</v>
@@ -4530,7 +4543,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3">
         <v>42828</v>
@@ -4581,7 +4594,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3">
         <v>42829</v>
@@ -4632,7 +4645,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
         <v>42830</v>
@@ -4683,7 +4696,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3">
         <v>42831</v>
@@ -4734,7 +4747,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3">
         <v>42832</v>
@@ -4785,7 +4798,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3">
         <v>42835</v>
@@ -4836,7 +4849,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3">
         <v>42836</v>
@@ -4887,7 +4900,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3">
         <v>42837</v>
@@ -4938,7 +4951,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3">
         <v>42838</v>
@@ -4989,7 +5002,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3">
         <v>42842</v>
@@ -5040,7 +5053,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3">
         <v>42843</v>
@@ -5091,7 +5104,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3">
         <v>42844</v>
@@ -5142,7 +5155,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3">
         <v>42845</v>
@@ -5193,7 +5206,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3">
         <v>42846</v>
@@ -5244,7 +5257,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
         <v>42849</v>
@@ -5295,7 +5308,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3">
         <v>42850</v>
@@ -5346,7 +5359,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3">
         <v>42851</v>
@@ -5397,7 +5410,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3">
         <v>42852</v>
@@ -5448,7 +5461,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3">
         <v>42853</v>
@@ -5499,7 +5512,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3">
         <v>42856</v>
@@ -5550,7 +5563,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3">
         <v>42857</v>
@@ -5601,7 +5614,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="3">
         <v>42858</v>
@@ -5652,7 +5665,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3">
         <v>42859</v>
@@ -5703,7 +5716,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3">
         <v>42860</v>
@@ -5754,7 +5767,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3">
         <v>42863</v>
@@ -5805,7 +5818,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3">
         <v>42864</v>
@@ -5856,7 +5869,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3">
         <v>42865</v>
@@ -5907,7 +5920,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="3">
         <v>42866</v>
@@ -5958,7 +5971,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3">
         <v>42867</v>
@@ -6009,7 +6022,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3">
         <v>42870</v>
@@ -6060,7 +6073,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3">
         <v>42871</v>
@@ -6111,7 +6124,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3">
         <v>42872</v>
@@ -6162,7 +6175,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="3">
         <v>42873</v>
@@ -6213,7 +6226,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="3">
         <v>42874</v>
@@ -6264,7 +6277,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3">
         <v>42877</v>
@@ -6315,7 +6328,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3">
         <v>42878</v>
@@ -6366,7 +6379,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3">
         <v>42879</v>
@@ -6417,7 +6430,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3">
         <v>42880</v>
@@ -6468,7 +6481,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3">
         <v>42881</v>
@@ -6519,7 +6532,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3">
         <v>42885</v>
@@ -6570,7 +6583,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3">
         <v>42886</v>
@@ -6621,7 +6634,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3">
         <v>42887</v>
@@ -6672,7 +6685,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3">
         <v>42888</v>
@@ -6723,7 +6736,7 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3">
         <v>42891</v>
@@ -6774,7 +6787,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3">
         <v>42892</v>
@@ -6825,7 +6838,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3">
         <v>42893</v>
@@ -6876,7 +6889,7 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3">
         <v>42894</v>
@@ -6927,7 +6940,7 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3">
         <v>42895</v>
@@ -6978,7 +6991,7 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3">
         <v>42898</v>
@@ -7029,7 +7042,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3">
         <v>42899</v>
@@ -7080,7 +7093,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3">
         <v>42900</v>
@@ -7131,7 +7144,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3">
         <v>42901</v>
@@ -7182,7 +7195,7 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3">
         <v>42902</v>
@@ -7233,7 +7246,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3">
         <v>42905</v>
@@ -7284,7 +7297,7 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3">
         <v>42906</v>
@@ -7335,7 +7348,7 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3">
         <v>42907</v>
@@ -7386,7 +7399,7 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3">
         <v>42908</v>
@@ -7437,7 +7450,7 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3">
         <v>42909</v>
@@ -7488,7 +7501,7 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3">
         <v>42912</v>
@@ -7539,7 +7552,7 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3">
         <v>42913</v>
@@ -7590,7 +7603,7 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3">
         <v>42914</v>
@@ -7641,7 +7654,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3">
         <v>42915</v>
@@ -7692,7 +7705,7 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3">
         <v>42916</v>
@@ -7743,7 +7756,7 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3">
         <v>42919</v>
@@ -7794,7 +7807,7 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3">
         <v>42921</v>
@@ -7845,7 +7858,7 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3">
         <v>42922</v>
@@ -7896,7 +7909,7 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3">
         <v>42923</v>
@@ -7947,7 +7960,7 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3">
         <v>42926</v>
@@ -7998,7 +8011,7 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3">
         <v>42927</v>
@@ -8049,7 +8062,7 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3">
         <v>42928</v>
@@ -8100,7 +8113,7 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3">
         <v>42929</v>
@@ -8151,7 +8164,7 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3">
         <v>42930</v>
@@ -8202,7 +8215,7 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3">
         <v>42933</v>
@@ -8253,7 +8266,7 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3">
         <v>42934</v>
@@ -8304,7 +8317,7 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="3">
         <v>42935</v>
@@ -8355,7 +8368,7 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="3">
         <v>42936</v>
@@ -8406,7 +8419,7 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3">
         <v>42937</v>
@@ -8457,7 +8470,7 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3">
         <v>42940</v>
@@ -8508,7 +8521,7 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3">
         <v>42941</v>
@@ -8559,7 +8572,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="3">
         <v>42942</v>
@@ -8610,7 +8623,7 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3">
         <v>42943</v>
@@ -8661,7 +8674,7 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="3">
         <v>42944</v>
@@ -8712,7 +8725,7 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3">
         <v>42947</v>
@@ -8763,7 +8776,7 @@
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3">
         <v>42948</v>
@@ -8814,7 +8827,7 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="3">
         <v>42949</v>
@@ -8872,7 +8885,7 @@
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3">
         <v>42950</v>
@@ -8930,7 +8943,7 @@
     </row>
     <row r="150" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="3">
         <v>42951</v>
@@ -8988,7 +9001,7 @@
     </row>
     <row r="151" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3">
         <v>42954</v>
@@ -9053,7 +9066,7 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="3">
         <v>42955</v>
@@ -9105,7 +9118,7 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3">
         <v>42956</v>
@@ -9156,7 +9169,7 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3">
         <v>42957</v>
@@ -9207,7 +9220,7 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3">
         <v>42958</v>
@@ -9258,7 +9271,7 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3">
         <v>42961</v>
@@ -9309,7 +9322,7 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3">
         <v>42962</v>
@@ -9360,7 +9373,7 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3">
         <v>42963</v>
@@ -9411,7 +9424,7 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3">
         <v>42964</v>
@@ -9462,7 +9475,7 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="3">
         <v>42965</v>
@@ -9513,7 +9526,7 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="3">
         <v>42968</v>
@@ -9564,7 +9577,7 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3">
         <v>42969</v>
@@ -9615,7 +9628,7 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="3">
         <v>42970</v>
@@ -9666,7 +9679,7 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="3">
         <v>42971</v>
@@ -9717,7 +9730,7 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="3">
         <v>42972</v>
@@ -9768,7 +9781,7 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="3">
         <v>42975</v>
@@ -9819,7 +9832,7 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="3">
         <v>42976</v>
@@ -9870,7 +9883,7 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="3">
         <v>42977</v>
@@ -9921,7 +9934,7 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="3">
         <v>42978</v>
@@ -9972,7 +9985,7 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="3">
         <v>42979</v>
@@ -10023,7 +10036,7 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="3">
         <v>42983</v>
@@ -10074,7 +10087,7 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="3">
         <v>42984</v>
@@ -10125,7 +10138,7 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="3">
         <v>42985</v>
@@ -10176,7 +10189,7 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="3">
         <v>42986</v>
@@ -10227,7 +10240,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="3">
         <v>42989</v>
@@ -10278,7 +10291,7 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="3">
         <v>42990</v>
@@ -10329,7 +10342,7 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="3">
         <v>42991</v>
@@ -10380,7 +10393,7 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="3">
         <v>42992</v>
@@ -10431,7 +10444,7 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="3">
         <v>42993</v>
@@ -10482,7 +10495,7 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="3">
         <v>42996</v>
@@ -10533,7 +10546,7 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="3">
         <v>42997</v>
@@ -10584,7 +10597,7 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="3">
         <v>42998</v>
@@ -10635,7 +10648,7 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="3">
         <v>42999</v>
@@ -10686,7 +10699,7 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="3">
         <v>43000</v>
@@ -10737,7 +10750,7 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="3">
         <v>43003</v>
@@ -10788,7 +10801,7 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="3">
         <v>43004</v>
@@ -10839,7 +10852,7 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="3">
         <v>43005</v>
@@ -10890,7 +10903,7 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="3">
         <v>43006</v>
@@ -10941,7 +10954,7 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="3">
         <v>43007</v>
@@ -10992,7 +11005,7 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="3">
         <v>43010</v>
@@ -11043,7 +11056,7 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="3">
         <v>43011</v>
@@ -11094,7 +11107,7 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="3">
         <v>43012</v>
@@ -11145,7 +11158,7 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3">
         <v>43013</v>
@@ -11196,7 +11209,7 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="3">
         <v>43014</v>
@@ -11247,7 +11260,7 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="3">
         <v>43017</v>
@@ -11298,7 +11311,7 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="3">
         <v>43018</v>
@@ -11349,7 +11362,7 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="3">
         <v>43019</v>
@@ -11400,7 +11413,7 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="3">
         <v>43020</v>
@@ -11451,7 +11464,7 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="3">
         <v>43021</v>
@@ -11502,7 +11515,7 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="3">
         <v>43024</v>
@@ -11553,7 +11566,7 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="3">
         <v>43025</v>
@@ -11604,7 +11617,7 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="3">
         <v>43026</v>
@@ -11655,7 +11668,7 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3">
         <v>43027</v>
@@ -11706,7 +11719,7 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="3">
         <v>43028</v>
@@ -11757,7 +11770,7 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3">
         <v>43031</v>
@@ -11808,7 +11821,7 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="3">
         <v>43032</v>
@@ -11859,7 +11872,7 @@
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="3">
         <v>43033</v>
@@ -11910,7 +11923,7 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="3">
         <v>43034</v>
@@ -11961,7 +11974,7 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="3">
         <v>43035</v>
@@ -12012,7 +12025,7 @@
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3">
         <v>43038</v>
@@ -12063,7 +12076,7 @@
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3">
         <v>43039</v>
@@ -12114,7 +12127,7 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3">
         <v>43040</v>
@@ -12165,7 +12178,7 @@
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3">
         <v>43041</v>
@@ -12216,7 +12229,7 @@
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3">
         <v>43042</v>
@@ -12267,7 +12280,7 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3">
         <v>43045</v>
@@ -12318,7 +12331,7 @@
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3">
         <v>43046</v>
@@ -12369,7 +12382,7 @@
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3">
         <v>43047</v>
@@ -12420,7 +12433,7 @@
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="3">
         <v>43048</v>
@@ -12471,7 +12484,7 @@
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3">
         <v>43049</v>
@@ -12522,7 +12535,7 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3">
         <v>43052</v>
@@ -12573,7 +12586,7 @@
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3">
         <v>43053</v>
@@ -12624,7 +12637,7 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3">
         <v>43054</v>
@@ -12675,7 +12688,7 @@
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3">
         <v>43055</v>
@@ -12726,7 +12739,7 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3">
         <v>43056</v>
@@ -12777,7 +12790,7 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3">
         <v>43059</v>
@@ -12828,7 +12841,7 @@
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="3">
         <v>43060</v>
@@ -12879,7 +12892,7 @@
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="3">
         <v>43061</v>
@@ -12930,7 +12943,7 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="3">
         <v>43063</v>
@@ -12981,7 +12994,7 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="3">
         <v>43066</v>
@@ -13032,7 +13045,7 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="3">
         <v>43067</v>
@@ -13083,7 +13096,7 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="3">
         <v>43068</v>
@@ -13134,7 +13147,7 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="3">
         <v>43069</v>
@@ -13185,7 +13198,7 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="3">
         <v>43070</v>
@@ -13236,7 +13249,7 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="3">
         <v>43073</v>
@@ -13287,7 +13300,7 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="3">
         <v>43074</v>
@@ -13338,7 +13351,7 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="3">
         <v>43075</v>
@@ -13389,7 +13402,7 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="3">
         <v>43076</v>
@@ -13440,7 +13453,7 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="3">
         <v>43077</v>
@@ -13491,7 +13504,7 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="3">
         <v>43080</v>
@@ -13542,7 +13555,7 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="3">
         <v>43081</v>
@@ -13593,7 +13606,7 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="3">
         <v>43082</v>
@@ -13644,7 +13657,7 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="3">
         <v>43083</v>
@@ -13695,7 +13708,7 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="3">
         <v>43084</v>
@@ -13746,7 +13759,7 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="3">
         <v>43087</v>
@@ -13797,7 +13810,7 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="3">
         <v>43088</v>
@@ -13848,7 +13861,7 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="3">
         <v>43089</v>
@@ -13899,7 +13912,7 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="3">
         <v>43090</v>
@@ -13950,7 +13963,7 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="3">
         <v>43091</v>
@@ -14001,7 +14014,7 @@
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="3">
         <v>43095</v>
@@ -14052,7 +14065,7 @@
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="3">
         <v>43096</v>
@@ -14103,7 +14116,7 @@
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="3">
         <v>43097</v>
@@ -14154,7 +14167,7 @@
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="3">
         <v>43098</v>
@@ -14205,7 +14218,7 @@
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="3">
         <v>43102</v>
@@ -14256,7 +14269,7 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="3">
         <v>43103</v>
@@ -14307,7 +14320,7 @@
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="3">
         <v>43104</v>
@@ -14358,7 +14371,7 @@
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="3">
         <v>43105</v>
@@ -14409,7 +14422,7 @@
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="3">
         <v>43108</v>
@@ -14460,7 +14473,7 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="3">
         <v>43109</v>
@@ -14511,7 +14524,7 @@
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="3">
         <v>43110</v>
@@ -14562,7 +14575,7 @@
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="3">
         <v>43111</v>
@@ -14613,7 +14626,7 @@
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="3">
         <v>43112</v>
@@ -14664,7 +14677,7 @@
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="3">
         <v>43116</v>
@@ -14715,7 +14728,7 @@
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="3">
         <v>43117</v>
@@ -14766,7 +14779,7 @@
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="3">
         <v>43118</v>
@@ -14817,7 +14830,7 @@
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="3">
         <v>43119</v>
@@ -14868,7 +14881,7 @@
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="3">
         <v>43122</v>
@@ -14919,7 +14932,7 @@
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="3">
         <v>43123</v>
@@ -14970,7 +14983,7 @@
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="3">
         <v>43124</v>
@@ -15021,7 +15034,7 @@
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="3">
         <v>43125</v>
@@ -15072,7 +15085,7 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="3">
         <v>43126</v>
@@ -15123,7 +15136,7 @@
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="3">
         <v>43129</v>
@@ -15174,7 +15187,7 @@
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="3">
         <v>43130</v>
@@ -15225,7 +15238,7 @@
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="3">
         <v>43131</v>
@@ -15276,7 +15289,7 @@
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="3">
         <v>43132</v>
@@ -15327,7 +15340,7 @@
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="3">
         <v>43133</v>
@@ -15378,7 +15391,7 @@
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="3">
         <v>43136</v>
@@ -15429,7 +15442,7 @@
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="3">
         <v>43137</v>
@@ -15480,7 +15493,7 @@
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="3">
         <v>43138</v>
@@ -15531,7 +15544,7 @@
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="3">
         <v>43139</v>
@@ -15582,7 +15595,7 @@
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="3">
         <v>43140</v>
@@ -15633,7 +15646,7 @@
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="3">
         <v>43143</v>
@@ -15684,7 +15697,7 @@
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="3">
         <v>43144</v>
@@ -15735,7 +15748,7 @@
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="3">
         <v>43145</v>
@@ -15786,7 +15799,7 @@
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="3">
         <v>43146</v>
@@ -15837,7 +15850,7 @@
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="3">
         <v>43147</v>
@@ -15888,7 +15901,7 @@
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="3">
         <v>43151</v>
@@ -15939,7 +15952,7 @@
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="3">
         <v>43152</v>
@@ -15990,7 +16003,7 @@
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="3">
         <v>43153</v>
@@ -16041,7 +16054,7 @@
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="3">
         <v>43154</v>
@@ -16092,7 +16105,7 @@
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="3">
         <v>43157</v>
@@ -16143,7 +16156,7 @@
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="3">
         <v>43158</v>
@@ -16194,7 +16207,7 @@
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="3">
         <v>43159</v>
@@ -16245,7 +16258,7 @@
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="3">
         <v>43160</v>
@@ -16296,7 +16309,7 @@
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="3">
         <v>43161</v>
@@ -16347,7 +16360,7 @@
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="3">
         <v>43164</v>
@@ -16398,7 +16411,7 @@
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="3">
         <v>43165</v>
@@ -16449,7 +16462,7 @@
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="3">
         <v>43166</v>
@@ -16500,7 +16513,7 @@
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="3">
         <v>43167</v>
@@ -16551,7 +16564,7 @@
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="3">
         <v>43168</v>
@@ -16602,7 +16615,7 @@
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="3">
         <v>43171</v>
@@ -16653,7 +16666,7 @@
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="3">
         <v>43172</v>
@@ -16704,7 +16717,7 @@
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="3">
         <v>43173</v>
@@ -16755,7 +16768,7 @@
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="3">
         <v>43174</v>
@@ -16806,7 +16819,7 @@
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="3">
         <v>43175</v>
@@ -16857,7 +16870,7 @@
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="3">
         <v>43178</v>
@@ -16908,7 +16921,7 @@
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="3">
         <v>43179</v>
@@ -16959,7 +16972,7 @@
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="3">
         <v>43180</v>
@@ -17010,7 +17023,7 @@
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="3">
         <v>43181</v>
@@ -17061,7 +17074,7 @@
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="3">
         <v>43182</v>
@@ -17112,7 +17125,7 @@
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="3">
         <v>43185</v>
@@ -17163,7 +17176,7 @@
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="3">
         <v>43186</v>
@@ -17214,7 +17227,7 @@
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="3">
         <v>43187</v>
@@ -17265,7 +17278,7 @@
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="3">
         <v>43188</v>
@@ -17316,7 +17329,7 @@
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="3">
         <v>43192</v>
@@ -17367,7 +17380,7 @@
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="3">
         <v>43193</v>
@@ -17418,7 +17431,7 @@
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="3">
         <v>43194</v>
@@ -17469,7 +17482,7 @@
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="3">
         <v>43195</v>
@@ -17520,7 +17533,7 @@
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" s="7">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="3">
         <v>43196</v>
@@ -17571,7 +17584,7 @@
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" s="7">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="3">
         <v>43199</v>
@@ -17622,7 +17635,7 @@
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="3">
         <v>43200</v>
@@ -17673,7 +17686,7 @@
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="3">
         <v>43201</v>
@@ -17724,7 +17737,7 @@
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="3">
         <v>43202</v>
@@ -17775,7 +17788,7 @@
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" s="7">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="3">
         <v>43203</v>
@@ -17826,7 +17839,7 @@
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="3">
         <v>43206</v>
@@ -17877,7 +17890,7 @@
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="3">
         <v>43207</v>
@@ -17928,7 +17941,7 @@
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="3">
         <v>43208</v>
@@ -17979,7 +17992,7 @@
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" s="7">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="3">
         <v>43209</v>
@@ -18030,7 +18043,7 @@
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="3">
         <v>43210</v>
@@ -18081,7 +18094,7 @@
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" s="7">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="3">
         <v>43213</v>
@@ -18132,7 +18145,7 @@
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="3">
         <v>43214</v>
@@ -18183,7 +18196,7 @@
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="3">
         <v>43215</v>
@@ -18234,7 +18247,7 @@
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="3">
         <v>43216</v>
@@ -18285,7 +18298,7 @@
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="3">
         <v>43217</v>
@@ -18336,7 +18349,7 @@
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="3">
         <v>43220</v>
@@ -18387,7 +18400,7 @@
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="3">
         <v>43221</v>
@@ -18438,7 +18451,7 @@
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="3">
         <v>43222</v>
@@ -18489,7 +18502,7 @@
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" s="7">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="3">
         <v>43223</v>
@@ -18540,7 +18553,7 @@
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" s="7">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="3">
         <v>43224</v>
@@ -18591,7 +18604,7 @@
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" s="7">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="3">
         <v>43227</v>
@@ -18642,7 +18655,7 @@
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="3">
         <v>43228</v>
@@ -18693,7 +18706,7 @@
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="3">
         <v>43229</v>
@@ -18744,7 +18757,7 @@
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="3">
         <v>43230</v>
@@ -18795,7 +18808,7 @@
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" s="7">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="3">
         <v>43231</v>
@@ -18846,7 +18859,7 @@
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" s="7">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="3">
         <v>43234</v>
@@ -18897,7 +18910,7 @@
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="3">
         <v>43235</v>
@@ -18948,7 +18961,7 @@
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="3">
         <v>43236</v>
@@ -18999,7 +19012,7 @@
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" s="7">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="3">
         <v>43237</v>
@@ -19050,7 +19063,7 @@
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" s="7">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="3">
         <v>43238</v>
@@ -19101,7 +19114,7 @@
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" s="7">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="3">
         <v>43241</v>
@@ -19152,7 +19165,7 @@
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="3">
         <v>43242</v>
@@ -19203,7 +19216,7 @@
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" s="7">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="3">
         <v>43243</v>
@@ -19254,7 +19267,7 @@
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" s="7">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="3">
         <v>43244</v>
@@ -19305,7 +19318,7 @@
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" s="7">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="3">
         <v>43245</v>
@@ -19356,7 +19369,7 @@
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" s="7">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="3">
         <v>43249</v>
@@ -19407,7 +19420,7 @@
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" s="7">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="3">
         <v>43250</v>
@@ -19458,7 +19471,7 @@
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" s="7">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="3">
         <v>43251</v>
@@ -19509,7 +19522,7 @@
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" s="7">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="3">
         <v>43252</v>
@@ -19560,7 +19573,7 @@
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" s="7">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="3">
         <v>43255</v>
@@ -19611,7 +19624,7 @@
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" s="7">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="3">
         <v>43256</v>
@@ -19662,7 +19675,7 @@
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" s="7">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="3">
         <v>43257</v>
@@ -19713,7 +19726,7 @@
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" s="7">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="3">
         <v>43258</v>
@@ -19764,7 +19777,7 @@
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" s="7">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="3">
         <v>43259</v>
@@ -19815,7 +19828,7 @@
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" s="7">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="3">
         <v>43262</v>
@@ -19866,7 +19879,7 @@
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" s="7">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="3">
         <v>43263</v>
@@ -19917,7 +19930,7 @@
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" s="7">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="3">
         <v>43264</v>
@@ -19968,7 +19981,7 @@
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" s="7">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="3">
         <v>43265</v>
@@ -20019,7 +20032,7 @@
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" s="7">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="3">
         <v>43266</v>
@@ -20070,7 +20083,7 @@
     </row>
     <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" s="7">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="3">
         <v>43269</v>
@@ -20121,7 +20134,7 @@
     </row>
     <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" s="7">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="3">
         <v>43270</v>
@@ -20172,7 +20185,7 @@
     </row>
     <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="3">
         <v>43271</v>
@@ -20223,7 +20236,7 @@
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="3">
         <v>43272</v>
@@ -20274,7 +20287,7 @@
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="3">
         <v>43273</v>
@@ -20325,7 +20338,7 @@
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="3">
         <v>43276</v>
@@ -20376,7 +20389,7 @@
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="3">
         <v>43277</v>
@@ -20427,7 +20440,7 @@
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="3">
         <v>43278</v>
@@ -20478,7 +20491,7 @@
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="3">
         <v>43279</v>
@@ -20529,7 +20542,7 @@
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="3">
         <v>43280</v>
@@ -20580,7 +20593,7 @@
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" s="7">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="3">
         <v>43283</v>
@@ -20631,7 +20644,7 @@
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" s="7">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="3">
         <v>43284</v>
@@ -20682,7 +20695,7 @@
     </row>
     <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="3">
         <v>43286</v>
@@ -20733,7 +20746,7 @@
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="3">
         <v>43287</v>
@@ -20784,7 +20797,7 @@
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" s="7">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="3">
         <v>43290</v>
@@ -20835,7 +20848,7 @@
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" s="7">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="3">
         <v>43291</v>
@@ -20886,7 +20899,7 @@
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" s="7">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="3">
         <v>43292</v>
@@ -20937,7 +20950,7 @@
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" s="7">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="3">
         <v>43293</v>
@@ -20988,7 +21001,7 @@
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" s="7">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="3">
         <v>43294</v>
@@ -21039,7 +21052,7 @@
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" s="7">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="3">
         <v>43297</v>
@@ -21090,7 +21103,7 @@
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" s="7">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="3">
         <v>43298</v>
@@ -21141,7 +21154,7 @@
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" s="7">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="3">
         <v>43299</v>
@@ -21192,7 +21205,7 @@
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" s="7">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="3">
         <v>43300</v>
@@ -21243,7 +21256,7 @@
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" s="7">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="3">
         <v>43301</v>
@@ -21294,7 +21307,7 @@
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" s="7">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="3">
         <v>43304</v>
@@ -21345,7 +21358,7 @@
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" s="7">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="3">
         <v>43305</v>
@@ -21396,7 +21409,7 @@
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" s="7">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="3">
         <v>43306</v>
@@ -21447,7 +21460,7 @@
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" s="7">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="3">
         <v>43307</v>
@@ -21498,7 +21511,7 @@
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" s="7">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="3">
         <v>43308</v>
@@ -21549,7 +21562,7 @@
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" s="7">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="3">
         <v>43311</v>
@@ -21600,7 +21613,7 @@
     </row>
     <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" s="7">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="3">
         <v>43312</v>
@@ -21651,7 +21664,7 @@
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" s="7">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="3">
         <v>43313</v>
@@ -21702,7 +21715,7 @@
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" s="7">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="3">
         <v>43314</v>
@@ -21753,7 +21766,7 @@
     </row>
     <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" s="7">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="3">
         <v>43315</v>
@@ -21804,7 +21817,7 @@
     </row>
     <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" s="7">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="3">
         <v>43318</v>
@@ -21855,7 +21868,7 @@
     </row>
     <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" s="7">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="3">
         <v>43319</v>
@@ -21906,7 +21919,7 @@
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" s="7">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="3">
         <v>43320</v>
@@ -21957,7 +21970,7 @@
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" s="7">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="3">
         <v>43321</v>
@@ -22008,7 +22021,7 @@
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" s="7">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="3">
         <v>43322</v>
@@ -22059,7 +22072,7 @@
     </row>
     <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" s="7">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="3">
         <v>43325</v>
@@ -22110,7 +22123,7 @@
     </row>
     <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" s="7">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="3">
         <v>43326</v>
@@ -22161,7 +22174,7 @@
     </row>
     <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" s="7">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="3">
         <v>43327</v>
@@ -22212,7 +22225,7 @@
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" s="7">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="3">
         <v>43328</v>
@@ -22263,7 +22276,7 @@
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" s="7">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="3">
         <v>43329</v>
@@ -22314,7 +22327,7 @@
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" s="7">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="3">
         <v>43332</v>
@@ -22365,7 +22378,7 @@
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" s="7">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="3">
         <v>43333</v>
@@ -22416,7 +22429,7 @@
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" s="7">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="3">
         <v>43334</v>
@@ -22467,7 +22480,7 @@
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" s="7">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="3">
         <v>43335</v>
@@ -22518,7 +22531,7 @@
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" s="7">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="3">
         <v>43336</v>
@@ -22569,7 +22582,7 @@
     </row>
     <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" s="7">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="3">
         <v>43339</v>
@@ -22620,7 +22633,7 @@
     </row>
     <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" s="7">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="3">
         <v>43340</v>
@@ -22671,7 +22684,7 @@
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" s="7">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="3">
         <v>43341</v>
@@ -22722,7 +22735,7 @@
     </row>
     <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="3">
         <v>43342</v>
@@ -22773,7 +22786,7 @@
     </row>
     <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" s="7">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="3">
         <v>43343</v>
@@ -22824,7 +22837,7 @@
     </row>
     <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" s="7">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="3">
         <v>43347</v>
@@ -22875,7 +22888,7 @@
     </row>
     <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" s="7">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="3">
         <v>43348</v>
@@ -22926,7 +22939,7 @@
     </row>
     <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" s="7">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="3">
         <v>43349</v>
@@ -22977,7 +22990,7 @@
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" s="7">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="3">
         <v>43350</v>
@@ -23028,7 +23041,7 @@
     </row>
     <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" s="7">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="3">
         <v>43353</v>
@@ -23079,7 +23092,7 @@
     </row>
     <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" s="7">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="3">
         <v>43354</v>
@@ -23130,7 +23143,7 @@
     </row>
     <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428" s="7">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="3">
         <v>43355</v>
@@ -23181,7 +23194,7 @@
     </row>
     <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A429" s="7">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="3">
         <v>43356</v>
@@ -23232,7 +23245,7 @@
     </row>
     <row r="430" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A430" s="7">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="3">
         <v>43357</v>
@@ -23283,7 +23296,7 @@
     </row>
     <row r="431" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A431" s="7">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="3">
         <v>43360</v>
@@ -23334,7 +23347,7 @@
     </row>
     <row r="432" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A432" s="7">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="3">
         <v>43361</v>
@@ -23385,7 +23398,7 @@
     </row>
     <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433" s="7">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="3">
         <v>43362</v>
@@ -23436,7 +23449,7 @@
     </row>
     <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434" s="7">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="3">
         <v>43363</v>
@@ -23487,7 +23500,7 @@
     </row>
     <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435" s="7">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="3">
         <v>43364</v>
@@ -23538,7 +23551,7 @@
     </row>
     <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436" s="7">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="3">
         <v>43367</v>
@@ -23589,7 +23602,7 @@
     </row>
     <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437" s="7">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="3">
         <v>43368</v>
@@ -23640,7 +23653,7 @@
     </row>
     <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438" s="7">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="3">
         <v>43369</v>
@@ -23691,7 +23704,7 @@
     </row>
     <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439" s="7">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="3">
         <v>43370</v>
@@ -23742,7 +23755,7 @@
     </row>
     <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440" s="7">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="3">
         <v>43371</v>
@@ -23793,7 +23806,7 @@
     </row>
     <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441" s="7">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="3">
         <v>43374</v>
@@ -23844,7 +23857,7 @@
     </row>
     <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442" s="7">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="3">
         <v>43375</v>
@@ -23895,7 +23908,7 @@
     </row>
     <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443" s="7">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="3">
         <v>43376</v>
@@ -23946,7 +23959,7 @@
     </row>
     <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444" s="7">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="3">
         <v>43377</v>
@@ -23997,7 +24010,7 @@
     </row>
     <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445" s="7">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="3">
         <v>43378</v>
@@ -24048,7 +24061,7 @@
     </row>
     <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446" s="7">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="3">
         <v>43381</v>
@@ -24099,7 +24112,7 @@
     </row>
     <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447" s="7">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="3">
         <v>43382</v>
@@ -24150,7 +24163,7 @@
     </row>
     <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448" s="7">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="3">
         <v>43383</v>
@@ -24201,7 +24214,7 @@
     </row>
     <row r="449" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A449" s="7">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="3">
         <v>43384</v>
@@ -24252,7 +24265,7 @@
     </row>
     <row r="450" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A450" s="7">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="3">
         <v>43385</v>
@@ -24303,7 +24316,7 @@
     </row>
     <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451" s="7">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="3">
         <v>43388</v>
@@ -24354,7 +24367,7 @@
     </row>
     <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452" s="7">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="3">
         <v>43389</v>
@@ -24405,7 +24418,7 @@
     </row>
     <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453" s="7">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="3">
         <v>43390</v>
@@ -24456,7 +24469,7 @@
     </row>
     <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454" s="7">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="3">
         <v>43391</v>
@@ -24507,7 +24520,7 @@
     </row>
     <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455" s="7">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="3">
         <v>43392</v>
@@ -24558,7 +24571,7 @@
     </row>
     <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456" s="7">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="3">
         <v>43395</v>
@@ -24609,7 +24622,7 @@
     </row>
     <row r="457" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A457" s="7">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="3">
         <v>43396</v>
@@ -24660,7 +24673,7 @@
     </row>
     <row r="458" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A458" s="7">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="3">
         <v>43397</v>
@@ -24711,7 +24724,7 @@
     </row>
     <row r="459" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A459" s="7">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="3">
         <v>43398</v>
@@ -24762,7 +24775,7 @@
     </row>
     <row r="460" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A460" s="7">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="3">
         <v>43399</v>
@@ -24813,7 +24826,7 @@
     </row>
     <row r="461" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A461" s="7">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="3">
         <v>43402</v>
@@ -24864,7 +24877,7 @@
     </row>
     <row r="462" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A462" s="7">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="3">
         <v>43403</v>
@@ -24915,7 +24928,7 @@
     </row>
     <row r="463" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A463" s="7">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="3">
         <v>43404</v>
@@ -24966,7 +24979,7 @@
     </row>
     <row r="464" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A464" s="7">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="3">
         <v>43405</v>
@@ -25017,7 +25030,7 @@
     </row>
     <row r="465" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A465" s="7">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="3">
         <v>43406</v>
@@ -25068,7 +25081,7 @@
     </row>
     <row r="466" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A466" s="7">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="3">
         <v>43409</v>
@@ -25119,7 +25132,7 @@
     </row>
     <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467" s="7">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="3">
         <v>43410</v>
@@ -25170,7 +25183,7 @@
     </row>
     <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468" s="7">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="3">
         <v>43411</v>
@@ -25221,7 +25234,7 @@
     </row>
     <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469" s="7">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="3">
         <v>43412</v>
@@ -25272,7 +25285,7 @@
     </row>
     <row r="470" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A470" s="7">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="3">
         <v>43413</v>
@@ -25323,7 +25336,7 @@
     </row>
     <row r="471" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A471" s="7">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="3">
         <v>43416</v>
@@ -25374,7 +25387,7 @@
     </row>
     <row r="472" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A472" s="7">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="3">
         <v>43417</v>
@@ -25425,7 +25438,7 @@
     </row>
     <row r="473" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A473" s="7">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="3">
         <v>43418</v>
@@ -25476,7 +25489,7 @@
     </row>
     <row r="474" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A474" s="7">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="3">
         <v>43419</v>
@@ -25527,7 +25540,7 @@
     </row>
     <row r="475" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A475" s="7">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="3">
         <v>43420</v>
@@ -25578,7 +25591,7 @@
     </row>
     <row r="476" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A476" s="7">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="3">
         <v>43423</v>
@@ -25629,7 +25642,7 @@
     </row>
     <row r="477" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A477" s="7">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="3">
         <v>43424</v>
@@ -25680,7 +25693,7 @@
     </row>
     <row r="478" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A478" s="7">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="3">
         <v>43425</v>
@@ -25731,7 +25744,7 @@
     </row>
     <row r="479" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A479" s="7">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="3">
         <v>43427</v>
@@ -25782,7 +25795,7 @@
     </row>
     <row r="480" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A480" s="7">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="3">
         <v>43430</v>
@@ -25833,7 +25846,7 @@
     </row>
     <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481" s="7">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="3">
         <v>43431</v>
@@ -25884,7 +25897,7 @@
     </row>
     <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482" s="7">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="3">
         <v>43432</v>
@@ -25935,7 +25948,7 @@
     </row>
     <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483" s="7">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="3">
         <v>43433</v>
@@ -25986,7 +25999,7 @@
     </row>
     <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484" s="7">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="3">
         <v>43434</v>
@@ -26037,7 +26050,7 @@
     </row>
     <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485" s="7">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="3">
         <v>43437</v>
@@ -26088,7 +26101,7 @@
     </row>
     <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486" s="7">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="3">
         <v>43438</v>
@@ -26139,7 +26152,7 @@
     </row>
     <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487" s="7">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="3">
         <v>43440</v>
@@ -26190,7 +26203,7 @@
     </row>
     <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488" s="7">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="3">
         <v>43441</v>
@@ -26241,7 +26254,7 @@
     </row>
     <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489" s="7">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="3">
         <v>43444</v>
@@ -26292,7 +26305,7 @@
     </row>
     <row r="490" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A490" s="7">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="3">
         <v>43445</v>
@@ -26343,7 +26356,7 @@
     </row>
     <row r="491" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A491" s="7">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="3">
         <v>43446</v>
@@ -26394,7 +26407,7 @@
     </row>
     <row r="492" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A492" s="7">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="3">
         <v>43447</v>
@@ -26445,7 +26458,7 @@
     </row>
     <row r="493" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A493" s="7">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="3">
         <v>43448</v>
@@ -26496,7 +26509,7 @@
     </row>
     <row r="494" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A494" s="7">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="3">
         <v>43451</v>
@@ -26547,7 +26560,7 @@
     </row>
     <row r="495" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A495" s="7">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="3">
         <v>43452</v>
@@ -26598,7 +26611,7 @@
     </row>
     <row r="496" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="3">
         <v>43453</v>
@@ -26649,7 +26662,7 @@
     </row>
     <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497" s="7">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="3">
         <v>43454</v>
@@ -26700,7 +26713,7 @@
     </row>
     <row r="498" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A498" s="7">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="3">
         <v>43455</v>
@@ -26751,7 +26764,7 @@
     </row>
     <row r="499" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A499" s="7">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="3">
         <v>43458</v>
@@ -26802,7 +26815,7 @@
     </row>
     <row r="500" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A500" s="7">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="3">
         <v>43460</v>
@@ -26860,7 +26873,7 @@
     </row>
     <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501" s="7">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="3">
         <v>43461</v>
@@ -26918,7 +26931,7 @@
     </row>
     <row r="502" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="7">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="3">
         <v>43462</v>
@@ -26976,7 +26989,7 @@
     </row>
     <row r="503" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A503" s="7">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="3">
         <v>43465</v>
